--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AV-MCPS_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.9409745570053153</v>
+        <v>1.351078441845992</v>
       </c>
       <c r="D2">
-        <v>0.3467630039076486</v>
+        <v>0.1855931673119104</v>
       </c>
       <c r="E2">
         <v>1.65194239762164</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1878274690816986</v>
+        <v>-0.2736976606776806</v>
       </c>
       <c r="D3">
-        <v>0.8510194645379103</v>
+        <v>0.7859728598146942</v>
       </c>
       <c r="E3">
         <v>1.65194239762164</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.0470011086147405</v>
+        <v>0.0542385595296184</v>
       </c>
       <c r="D4">
-        <v>0.9625142065260079</v>
+        <v>0.9570625570261804</v>
       </c>
       <c r="E4">
         <v>1.65194239762164</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.5098169987412284</v>
+        <v>0.4746280052461031</v>
       </c>
       <c r="D5">
-        <v>0.6102020028677555</v>
+        <v>0.6380866286512168</v>
       </c>
       <c r="E5">
         <v>1.65194239762164</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.469098564284978</v>
+        <v>-1.898165335894227</v>
       </c>
       <c r="D6">
-        <v>0.1418684818534484</v>
+        <v>0.06619028338820687</v>
       </c>
       <c r="E6">
         <v>1.461897042038809</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.009502229315354</v>
+        <v>-0.9038133190657295</v>
       </c>
       <c r="D7">
-        <v>0.3127823042889428</v>
+        <v>0.3724539421796993</v>
       </c>
       <c r="E7">
         <v>1.461897042038809</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.4875415624906187</v>
+        <v>-0.463503805668036</v>
       </c>
       <c r="D8">
-        <v>0.6258958061661364</v>
+        <v>0.6459569070323865</v>
       </c>
       <c r="E8">
         <v>1.461897042038809</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.2386314472904116</v>
+        <v>0.3385275375889127</v>
       </c>
       <c r="D9">
-        <v>0.8114010818039938</v>
+        <v>0.7370474099830422</v>
       </c>
       <c r="E9">
         <v>1.685716915125164</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.7485974465746766</v>
+        <v>0.7339657971996605</v>
       </c>
       <c r="D10">
-        <v>0.4541348108276813</v>
+        <v>0.4680011448381567</v>
       </c>
       <c r="E10">
         <v>1.685716915125164</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.4703208277102499</v>
+        <v>0.616439427927856</v>
       </c>
       <c r="D11">
-        <v>0.6381461742781971</v>
+        <v>0.5417102749687377</v>
       </c>
       <c r="E11">
         <v>1.642329539060739</v>
